--- a/xlsx/机理_intext.xlsx
+++ b/xlsx/机理_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="75">
   <si>
     <t>机理</t>
   </si>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BA%B6%E5%8A%91%E6%95%88%E6%87%89</t>
   </si>
   <si>
-    <t>溶劑效應</t>
+    <t>溶剂效应</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%A6%E5%8A%A8%E5%8A%9B%E5%AD%A6</t>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9F%E7%8E%87%E6%8E%A7%E5%88%B6%E6%AD%A5%E9%A9%9F</t>
-  </si>
-  <si>
-    <t>速率控制步驟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E5%BA%94%E6%9C%BA%E7%90%86</t>
@@ -645,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
         <v>4</v>
@@ -1715,7 +1712,7 @@
         <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1741,10 +1738,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" t="s">
         <v>73</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -1770,10 +1767,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
